--- a/assets/valuation_engine/input/ADVANCED_MICRO_DEVICES_INC.xlsx
+++ b/assets/valuation_engine/input/ADVANCED_MICRO_DEVICES_INC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tao_project\dashboard_finance_metrics\assets\valuation_engine\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BBFC96-AC27-44BE-ADFA-1DA1A09DAD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CFC872-33A3-44BF-99D9-5D2C607BD3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="1" r:id="rId1"/>
@@ -992,9 +992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AQ1" sqref="AQ1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1023,8 +1021,8 @@
     <col min="25" max="25" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="31" max="43" width="23.28515625" style="5" customWidth="1"/>
   </cols>
@@ -1109,10 +1107,10 @@
         <v>41</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>38</v>
@@ -1240,10 +1238,10 @@
         <v>-250000000</v>
       </c>
       <c r="AB2">
+        <v>382000000</v>
+      </c>
+      <c r="AC2">
         <v>317000000</v>
-      </c>
-      <c r="AC2">
-        <v>382000000</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -1371,10 +1369,10 @@
         <v>-105000000</v>
       </c>
       <c r="AB3">
+        <v>6000000</v>
+      </c>
+      <c r="AC3">
         <v>168000000</v>
-      </c>
-      <c r="AC3">
-        <v>6000000</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -1502,10 +1500,10 @@
         <v>-163000000</v>
       </c>
       <c r="AB4">
+        <v>195000000</v>
+      </c>
+      <c r="AC4">
         <v>247000000</v>
-      </c>
-      <c r="AC4">
-        <v>195000000</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -1633,10 +1631,10 @@
         <v>-133000000</v>
       </c>
       <c r="AB5">
+        <v>-338000000</v>
+      </c>
+      <c r="AC5">
         <v>260000000</v>
-      </c>
-      <c r="AC5">
-        <v>-338000000</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1764,10 +1762,10 @@
         <v>-40000000</v>
       </c>
       <c r="AB6">
+        <v>107000000</v>
+      </c>
+      <c r="AC6">
         <v>63000000</v>
-      </c>
-      <c r="AC6">
-        <v>107000000</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1895,10 +1893,10 @@
         <v>-79000000</v>
       </c>
       <c r="AB7">
+        <v>188000000</v>
+      </c>
+      <c r="AC7">
         <v>128000000</v>
-      </c>
-      <c r="AC7">
-        <v>188000000</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -2026,10 +2024,10 @@
         <v>-111000000</v>
       </c>
       <c r="AB8">
+        <v>-52000000</v>
+      </c>
+      <c r="AC8">
         <v>194000000</v>
-      </c>
-      <c r="AC8">
-        <v>-52000000</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -2157,10 +2155,10 @@
         <v>-84000000</v>
       </c>
       <c r="AB9">
+        <v>-148000000</v>
+      </c>
+      <c r="AC9">
         <v>236000000</v>
-      </c>
-      <c r="AC9">
-        <v>-148000000</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -2288,10 +2286,10 @@
         <v>-20000000</v>
       </c>
       <c r="AB10">
+        <v>-155000000</v>
+      </c>
+      <c r="AC10">
         <v>66000000</v>
-      </c>
-      <c r="AC10">
-        <v>-155000000</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -2419,10 +2417,10 @@
         <v>-48000000</v>
       </c>
       <c r="AB11">
+        <v>-190000000</v>
+      </c>
+      <c r="AC11">
         <v>125000000</v>
-      </c>
-      <c r="AC11">
-        <v>-190000000</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -2550,10 +2548,10 @@
         <v>-63000000</v>
       </c>
       <c r="AB12">
+        <v>-169000000</v>
+      </c>
+      <c r="AC12">
         <v>182000000</v>
-      </c>
-      <c r="AC12">
-        <v>-169000000</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -2681,10 +2679,10 @@
         <v>-95000000</v>
       </c>
       <c r="AB13">
+        <v>-98000000</v>
+      </c>
+      <c r="AC13">
         <v>203000000</v>
-      </c>
-      <c r="AC13">
-        <v>-98000000</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -2812,10 +2810,10 @@
         <v>-21000000</v>
       </c>
       <c r="AB14">
+        <v>-204000000</v>
+      </c>
+      <c r="AC14">
         <v>53000000</v>
-      </c>
-      <c r="AC14">
-        <v>-204000000</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -2943,10 +2941,10 @@
         <v>-44000000</v>
       </c>
       <c r="AB15">
+        <v>-232000000</v>
+      </c>
+      <c r="AC15">
         <v>106000000</v>
-      </c>
-      <c r="AC15">
-        <v>-232000000</v>
       </c>
       <c r="AD15">
         <v>0</v>
@@ -3074,10 +3072,10 @@
         <v>-73000000</v>
       </c>
       <c r="AB16">
+        <v>-214000000</v>
+      </c>
+      <c r="AC16">
         <v>155000000</v>
-      </c>
-      <c r="AC16">
-        <v>-214000000</v>
       </c>
       <c r="AD16">
         <v>0</v>
@@ -3205,10 +3203,10 @@
         <v>-96000000</v>
       </c>
       <c r="AB17">
+        <v>-226000000</v>
+      </c>
+      <c r="AC17">
         <v>167000000</v>
-      </c>
-      <c r="AC17">
-        <v>-226000000</v>
       </c>
       <c r="AD17">
         <v>0</v>
@@ -3336,10 +3334,10 @@
         <v>-22000000</v>
       </c>
       <c r="AB18">
+        <v>-173000000</v>
+      </c>
+      <c r="AC18">
         <v>46000000</v>
-      </c>
-      <c r="AC18">
-        <v>-173000000</v>
       </c>
       <c r="AD18">
         <v>0</v>
@@ -3467,10 +3465,10 @@
         <v>-39000000</v>
       </c>
       <c r="AB19">
+        <v>-231000000</v>
+      </c>
+      <c r="AC19">
         <v>91000000</v>
-      </c>
-      <c r="AC19">
-        <v>-231000000</v>
       </c>
       <c r="AD19">
         <v>0</v>
@@ -3598,10 +3596,10 @@
         <v>-64000000</v>
       </c>
       <c r="AB20">
+        <v>-290000000</v>
+      </c>
+      <c r="AC20">
         <v>133000000</v>
-      </c>
-      <c r="AC20">
-        <v>-290000000</v>
       </c>
       <c r="AD20">
         <v>0</v>
@@ -3729,10 +3727,10 @@
         <v>-77000000</v>
       </c>
       <c r="AB21">
+        <v>90000000</v>
+      </c>
+      <c r="AC21">
         <v>133000000</v>
-      </c>
-      <c r="AC21">
-        <v>90000000</v>
       </c>
       <c r="AD21">
         <v>0</v>
@@ -3860,10 +3858,10 @@
         <v>-26000000</v>
       </c>
       <c r="AB22">
+        <v>-42000000</v>
+      </c>
+      <c r="AC22">
         <v>33000000</v>
-      </c>
-      <c r="AC22">
-        <v>-42000000</v>
       </c>
       <c r="AD22">
         <v>0</v>
@@ -3991,10 +3989,10 @@
         <v>-47000000</v>
       </c>
       <c r="AB23">
+        <v>-127000000</v>
+      </c>
+      <c r="AC23">
         <v>66000000</v>
-      </c>
-      <c r="AC23">
-        <v>-127000000</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -4122,10 +4120,10 @@
         <v>-56000000</v>
       </c>
       <c r="AB24">
+        <v>-98000000</v>
+      </c>
+      <c r="AC24">
         <v>99000000</v>
-      </c>
-      <c r="AC24">
-        <v>-98000000</v>
       </c>
       <c r="AD24">
         <v>0</v>
@@ -4253,10 +4251,10 @@
         <v>-113000000</v>
       </c>
       <c r="AB25">
+        <v>68000000</v>
+      </c>
+      <c r="AC25">
         <v>144000000</v>
-      </c>
-      <c r="AC25">
-        <v>68000000</v>
       </c>
       <c r="AD25">
         <v>0</v>
@@ -4392,10 +4390,10 @@
         <v>-23000000</v>
       </c>
       <c r="AB26">
+        <v>-299000000</v>
+      </c>
+      <c r="AC26">
         <v>34000000</v>
-      </c>
-      <c r="AC26">
-        <v>-299000000</v>
       </c>
       <c r="AD26">
         <v>0</v>
@@ -4523,10 +4521,10 @@
         <v>-35000000</v>
       </c>
       <c r="AB27">
+        <v>-381000000</v>
+      </c>
+      <c r="AC27">
         <v>69000000</v>
-      </c>
-      <c r="AC27">
-        <v>-381000000</v>
       </c>
       <c r="AD27">
         <v>0</v>
@@ -4654,10 +4652,10 @@
         <v>-69000000</v>
       </c>
       <c r="AB28">
+        <v>-315000000</v>
+      </c>
+      <c r="AC28">
         <v>105000000</v>
-      </c>
-      <c r="AC28">
-        <v>-315000000</v>
       </c>
       <c r="AD28">
         <v>0</v>
@@ -4785,10 +4783,10 @@
         <v>-163000000</v>
       </c>
       <c r="AB29">
+        <v>34000000</v>
+      </c>
+      <c r="AC29">
         <v>170000000</v>
-      </c>
-      <c r="AC29">
-        <v>34000000</v>
       </c>
       <c r="AD29">
         <v>0</v>
@@ -4916,10 +4914,10 @@
         <v>-46000000</v>
       </c>
       <c r="AB30">
+        <v>-86000000</v>
+      </c>
+      <c r="AC30">
         <v>44000000</v>
-      </c>
-      <c r="AC30">
-        <v>-86000000</v>
       </c>
       <c r="AD30">
         <v>0</v>
@@ -5047,10 +5045,10 @@
         <v>-89000000</v>
       </c>
       <c r="AB31">
+        <v>-131000000</v>
+      </c>
+      <c r="AC31">
         <v>86000000</v>
-      </c>
-      <c r="AC31">
-        <v>-131000000</v>
       </c>
       <c r="AD31">
         <v>0</v>
@@ -5178,10 +5176,10 @@
         <v>-122000000</v>
       </c>
       <c r="AB32">
+        <v>-36000000</v>
+      </c>
+      <c r="AC32">
         <v>127000000</v>
-      </c>
-      <c r="AC32">
-        <v>-36000000</v>
       </c>
       <c r="AD32">
         <v>0</v>
@@ -5309,10 +5307,10 @@
         <v>-217000000</v>
       </c>
       <c r="AB33">
+        <v>493000000</v>
+      </c>
+      <c r="AC33">
         <v>222000000</v>
-      </c>
-      <c r="AC33">
-        <v>493000000</v>
       </c>
       <c r="AD33">
         <v>0</v>
@@ -5440,10 +5438,10 @@
         <v>-62000000</v>
       </c>
       <c r="AB34">
+        <v>-213000000</v>
+      </c>
+      <c r="AC34">
         <v>46000000</v>
-      </c>
-      <c r="AC34">
-        <v>-213000000</v>
       </c>
       <c r="AD34">
         <v>0</v>
@@ -5571,10 +5569,10 @@
         <v>-120000000</v>
       </c>
       <c r="AB35">
+        <v>-183000000</v>
+      </c>
+      <c r="AC35">
         <v>98000000</v>
-      </c>
-      <c r="AC35">
-        <v>-183000000</v>
       </c>
       <c r="AD35">
         <v>0</v>
@@ -5702,10 +5700,10 @@
         <v>-175000000</v>
       </c>
       <c r="AB36">
+        <v>51000000</v>
+      </c>
+      <c r="AC36">
         <v>158000000</v>
-      </c>
-      <c r="AC36">
-        <v>51000000</v>
       </c>
       <c r="AD36">
         <v>0</v>
@@ -5833,10 +5831,10 @@
         <v>-294000000</v>
       </c>
       <c r="AB37">
+        <v>1071000000</v>
+      </c>
+      <c r="AC37">
         <v>312000000</v>
-      </c>
-      <c r="AC37">
-        <v>1071000000</v>
       </c>
       <c r="AD37">
         <v>0</v>
@@ -5964,10 +5962,10 @@
         <v>-55000000</v>
       </c>
       <c r="AB38">
+        <v>-65000000</v>
+      </c>
+      <c r="AC38">
         <v>68000000</v>
-      </c>
-      <c r="AC38">
-        <v>-65000000</v>
       </c>
       <c r="AD38">
         <v>0</v>
@@ -6095,10 +6093,10 @@
         <v>-146000000</v>
       </c>
       <c r="AB39">
+        <v>178000000</v>
+      </c>
+      <c r="AC39">
         <v>140000000</v>
-      </c>
-      <c r="AC39">
-        <v>178000000</v>
       </c>
       <c r="AD39">
         <v>0</v>
@@ -6226,10 +6224,10 @@
         <v>-220000000</v>
       </c>
       <c r="AB40">
+        <v>517000000</v>
+      </c>
+      <c r="AC40">
         <v>222000000</v>
-      </c>
-      <c r="AC40">
-        <v>517000000</v>
       </c>
       <c r="AD40">
         <v>0</v>
@@ -6357,10 +6355,10 @@
         <v>-301000000</v>
       </c>
       <c r="AB41">
+        <v>3521000000</v>
+      </c>
+      <c r="AC41">
         <v>407000000</v>
-      </c>
-      <c r="AC41">
-        <v>3521000000</v>
       </c>
       <c r="AD41">
         <v>0</v>
@@ -6488,10 +6486,10 @@
         <v>-66000000</v>
       </c>
       <c r="AB42">
+        <v>898000000</v>
+      </c>
+      <c r="AC42">
         <v>95000000</v>
-      </c>
-      <c r="AC42">
-        <v>898000000</v>
       </c>
       <c r="AD42">
         <v>0</v>
@@ -6619,10 +6617,10 @@
         <v>-130000000</v>
       </c>
       <c r="AB43">
+        <v>1850000000</v>
+      </c>
+      <c r="AC43">
         <v>192000000</v>
-      </c>
-      <c r="AC43">
-        <v>1850000000</v>
       </c>
       <c r="AD43">
         <v>0</v>
@@ -6750,10 +6748,10 @@
         <v>-215000000</v>
       </c>
       <c r="AB44">
+        <v>2699000000</v>
+      </c>
+      <c r="AC44">
         <v>289000000</v>
-      </c>
-      <c r="AC44">
-        <v>2699000000</v>
       </c>
       <c r="AD44">
         <v>0</v>
@@ -6881,10 +6879,10 @@
         <v>-450000000</v>
       </c>
       <c r="AB45">
+        <v>3565000000</v>
+      </c>
+      <c r="AC45">
         <v>4174000000</v>
-      </c>
-      <c r="AC45">
-        <v>3565000000</v>
       </c>
       <c r="AD45">
         <v>0</v>
@@ -7012,10 +7010,10 @@
         <v>-71000000</v>
       </c>
       <c r="AB46">
+        <v>995000000</v>
+      </c>
+      <c r="AC46">
         <v>609000000</v>
-      </c>
-      <c r="AC46">
-        <v>995000000</v>
       </c>
       <c r="AD46">
         <v>0</v>
@@ -7143,10 +7141,10 @@
         <v>-203000000</v>
       </c>
       <c r="AB47">
+        <v>2033000000</v>
+      </c>
+      <c r="AC47">
         <v>1789000000</v>
-      </c>
-      <c r="AC47">
-        <v>2033000000</v>
       </c>
       <c r="AD47">
         <v>0</v>
@@ -7274,10 +7272,10 @@
         <v>-326000000</v>
       </c>
       <c r="AB48">
+        <v>2998000000</v>
+      </c>
+      <c r="AC48">
         <v>2954000000</v>
-      </c>
-      <c r="AC48">
-        <v>2998000000</v>
       </c>
       <c r="AD48">
         <v>0</v>
@@ -7405,10 +7403,10 @@
         <v>-158000000</v>
       </c>
       <c r="AB49">
+        <v>486000000</v>
+      </c>
+      <c r="AC49">
         <v>982000000</v>
-      </c>
-      <c r="AC49">
-        <v>486000000</v>
       </c>
       <c r="AD49">
         <v>0</v>
